--- a/btmau/diem_danh.xlsx
+++ b/btmau/diem_danh.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$D$17</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Vương Lan</t>
   </si>
@@ -99,6 +102,15 @@
   </si>
   <si>
     <t>bài 2, 3,4</t>
+  </si>
+  <si>
+    <t>24/10</t>
+  </si>
+  <si>
+    <t>Thanh HOA</t>
+  </si>
+  <si>
+    <t>ha NOI</t>
   </si>
 </sst>
 </file>
@@ -121,12 +133,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,9 +165,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B17"/>
+  <dimension ref="A3:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,121 +464,205 @@
     <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/btmau/diem_danh.xlsx
+++ b/btmau/diem_danh.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Vương Lan</t>
   </si>
@@ -107,17 +107,20 @@
     <t>24/10</t>
   </si>
   <si>
-    <t>Thanh HOA</t>
-  </si>
-  <si>
-    <t>ha NOI</t>
+    <t>27/10</t>
+  </si>
+  <si>
+    <t>31/10</t>
+  </si>
+  <si>
+    <t>x (đã thu)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +135,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +162,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -165,13 +181,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D17"/>
+  <dimension ref="A3:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,15 +482,24 @@
     <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7">
+        <v>43142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -482,11 +509,8 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -496,11 +520,8 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -510,50 +531,45 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -563,11 +579,8 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -577,11 +590,8 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -591,11 +601,11 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -605,39 +615,39 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -647,11 +657,8 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -660,9 +667,6 @@
       </c>
       <c r="C17" t="s">
         <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/btmau/diem_danh.xlsx
+++ b/btmau/diem_danh.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>Vương Lan</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>x (đã thu)</t>
+  </si>
+  <si>
+    <t>7/11</t>
+  </si>
+  <si>
+    <t>Quỹ</t>
+  </si>
+  <si>
+    <t>800k</t>
   </si>
 </sst>
 </file>
@@ -181,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -190,6 +199,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,19 +481,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F17"/>
+  <dimension ref="A2:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -498,8 +518,11 @@
       <c r="F3" s="7">
         <v>43142</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -510,7 +533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -520,8 +543,11 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -532,7 +558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -542,11 +568,11 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -554,8 +580,9 @@
         <v>19</v>
       </c>
       <c r="D8"/>
-    </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -568,8 +595,9 @@
       <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -579,8 +607,9 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -590,8 +619,9 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -601,11 +631,11 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -615,8 +645,9 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -629,11 +660,11 @@
       <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -646,8 +677,9 @@
       <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>

--- a/btmau/diem_danh.xlsx
+++ b/btmau/diem_danh.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Vương Lan</t>
   </si>
@@ -122,7 +122,13 @@
     <t>Quỹ</t>
   </si>
   <si>
-    <t>800k</t>
+    <t>x(đã thu)</t>
+  </si>
+  <si>
+    <t>x(Đã thu)</t>
+  </si>
+  <si>
+    <t>9/11</t>
   </si>
 </sst>
 </file>
@@ -152,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +183,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -190,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -201,6 +213,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +499,7 @@
   <dimension ref="A2:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,8 +513,8 @@
       <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
-        <v>31</v>
+      <c r="K2">
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -521,6 +536,12 @@
       <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="H3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -569,7 +590,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -632,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -663,6 +684,9 @@
       <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="H14" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -678,6 +702,9 @@
         <v>18</v>
       </c>
       <c r="F15" s="1"/>
+      <c r="H15" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -690,14 +717,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
     </row>
